--- a/r5-core-Profiles-4-Organization-Practitioner/all-profiles.xlsx
+++ b/r5-core-Profiles-4-Organization-Practitioner/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21698" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21699" uniqueCount="1737">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T14:15:44+00:00</t>
+    <t>2024-02-17T14:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4093,16 +4093,6 @@
   </si>
   <si>
     <t>PractitionerRole.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExtendedContactDetail
-</t>
-  </si>
-  <si>
-    <t>Official contact details relating to this PractitionerRole</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available relevant to the specific PractitionerRole. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
   </si>
   <si>
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these. Sometimes these also include a named person/organization that handles contact for specific purposes, such as a receptionist, or accounts clerk etc.</t>
@@ -7268,7 +7258,7 @@
         <v>2</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="224">
@@ -7276,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="225">
@@ -7292,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="227">
@@ -7300,7 +7290,7 @@
         <v>10</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="228">
@@ -7354,7 +7344,7 @@
         <v>21</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="235">
@@ -7390,7 +7380,7 @@
         <v>29</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="240">
@@ -7398,7 +7388,7 @@
         <v>31</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="241">
@@ -61314,17 +61304,19 @@
         <v>73</v>
       </c>
       <c r="L514" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M514" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N514" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O514" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="P514" t="s" s="2">
         <v>1318</v>
-      </c>
-      <c r="M514" t="s" s="2">
-        <v>1319</v>
-      </c>
-      <c r="N514" t="s" s="2">
-        <v>1320</v>
-      </c>
-      <c r="O514" s="2"/>
-      <c r="P514" t="s" s="2">
-        <v>1321</v>
       </c>
       <c r="Q514" t="s" s="2">
         <v>73</v>
@@ -61393,10 +61385,10 @@
         <v>1259</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -61422,13 +61414,13 @@
         <v>240</v>
       </c>
       <c r="M515" t="s" s="2">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="N515" t="s" s="2">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="O515" t="s" s="2">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="P515" s="2"/>
       <c r="Q515" t="s" s="2">
@@ -61457,10 +61449,10 @@
         <v>602</v>
       </c>
       <c r="Z515" t="s" s="2">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="AA515" t="s" s="2">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="AB515" t="s" s="2">
         <v>73</v>
@@ -61478,7 +61470,7 @@
         <v>73</v>
       </c>
       <c r="AG515" t="s" s="2">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AH515" t="s" s="2">
         <v>74</v>
@@ -61498,10 +61490,10 @@
         <v>1259</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -61527,16 +61519,16 @@
         <v>240</v>
       </c>
       <c r="M516" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="N516" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="O516" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="P516" t="s" s="2">
         <v>1329</v>
-      </c>
-      <c r="N516" t="s" s="2">
-        <v>1330</v>
-      </c>
-      <c r="O516" t="s" s="2">
-        <v>1331</v>
-      </c>
-      <c r="P516" t="s" s="2">
-        <v>1332</v>
       </c>
       <c r="Q516" t="s" s="2">
         <v>73</v>
@@ -61585,7 +61577,7 @@
         <v>73</v>
       </c>
       <c r="AG516" t="s" s="2">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="AH516" t="s" s="2">
         <v>74</v>
@@ -61605,10 +61597,10 @@
         <v>1259</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -61631,16 +61623,16 @@
         <v>73</v>
       </c>
       <c r="L517" t="s" s="2">
+        <v>1331</v>
+      </c>
+      <c r="M517" t="s" s="2">
+        <v>1332</v>
+      </c>
+      <c r="N517" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="O517" t="s" s="2">
         <v>1334</v>
-      </c>
-      <c r="M517" t="s" s="2">
-        <v>1335</v>
-      </c>
-      <c r="N517" t="s" s="2">
-        <v>1336</v>
-      </c>
-      <c r="O517" t="s" s="2">
-        <v>1337</v>
       </c>
       <c r="P517" s="2"/>
       <c r="Q517" t="s" s="2">
@@ -61690,7 +61682,7 @@
         <v>73</v>
       </c>
       <c r="AG517" t="s" s="2">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="AH517" t="s" s="2">
         <v>74</v>
@@ -61710,10 +61702,10 @@
         <v>1259</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" t="s" s="2">
@@ -61739,14 +61731,14 @@
         <v>580</v>
       </c>
       <c r="M518" t="s" s="2">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="N518" t="s" s="2">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="O518" s="2"/>
       <c r="P518" t="s" s="2">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="Q518" t="s" s="2">
         <v>73</v>
@@ -61795,7 +61787,7 @@
         <v>73</v>
       </c>
       <c r="AG518" t="s" s="2">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="AH518" t="s" s="2">
         <v>74</v>
@@ -61812,13 +61804,13 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -61844,10 +61836,10 @@
         <v>76</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="O519" s="2"/>
       <c r="P519" s="2"/>
@@ -61898,7 +61890,7 @@
         <v>73</v>
       </c>
       <c r="AG519" t="s" s="2">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="AH519" t="s" s="2">
         <v>74</v>
@@ -61910,18 +61902,18 @@
         <v>73</v>
       </c>
       <c r="AK519" t="s" s="2">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -62020,13 +62012,13 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -62123,13 +62115,13 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -62228,13 +62220,13 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -62333,13 +62325,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -62438,13 +62430,13 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -62543,13 +62535,13 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -62648,13 +62640,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -62755,13 +62747,13 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -62787,16 +62779,16 @@
         <v>200</v>
       </c>
       <c r="M528" t="s" s="2">
+        <v>1358</v>
+      </c>
+      <c r="N528" t="s" s="2">
+        <v>1359</v>
+      </c>
+      <c r="O528" t="s" s="2">
+        <v>1360</v>
+      </c>
+      <c r="P528" t="s" s="2">
         <v>1361</v>
-      </c>
-      <c r="N528" t="s" s="2">
-        <v>1362</v>
-      </c>
-      <c r="O528" t="s" s="2">
-        <v>1363</v>
-      </c>
-      <c r="P528" t="s" s="2">
-        <v>1364</v>
       </c>
       <c r="Q528" t="s" s="2">
         <v>73</v>
@@ -62845,7 +62837,7 @@
         <v>73</v>
       </c>
       <c r="AG528" t="s" s="2">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="AH528" t="s" s="2">
         <v>74</v>
@@ -62857,18 +62849,18 @@
         <v>73</v>
       </c>
       <c r="AK528" t="s" s="2">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -62894,16 +62886,16 @@
         <v>411</v>
       </c>
       <c r="M529" t="s" s="2">
+        <v>1364</v>
+      </c>
+      <c r="N529" t="s" s="2">
+        <v>1365</v>
+      </c>
+      <c r="O529" t="s" s="2">
+        <v>1366</v>
+      </c>
+      <c r="P529" t="s" s="2">
         <v>1367</v>
-      </c>
-      <c r="N529" t="s" s="2">
-        <v>1368</v>
-      </c>
-      <c r="O529" t="s" s="2">
-        <v>1369</v>
-      </c>
-      <c r="P529" t="s" s="2">
-        <v>1370</v>
       </c>
       <c r="Q529" t="s" s="2">
         <v>73</v>
@@ -62952,7 +62944,7 @@
         <v>73</v>
       </c>
       <c r="AG529" t="s" s="2">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="AH529" t="s" s="2">
         <v>74</v>
@@ -62969,13 +62961,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -63001,13 +62993,13 @@
         <v>119</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="O530" t="s" s="2">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="P530" s="2"/>
       <c r="Q530" t="s" s="2">
@@ -63057,7 +63049,7 @@
         <v>73</v>
       </c>
       <c r="AG530" t="s" s="2">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="AH530" t="s" s="2">
         <v>74</v>
@@ -63074,13 +63066,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -63103,16 +63095,16 @@
         <v>100</v>
       </c>
       <c r="L531" t="s" s="2">
+        <v>1373</v>
+      </c>
+      <c r="M531" t="s" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N531" t="s" s="2">
+        <v>1375</v>
+      </c>
+      <c r="O531" t="s" s="2">
         <v>1376</v>
-      </c>
-      <c r="M531" t="s" s="2">
-        <v>1377</v>
-      </c>
-      <c r="N531" t="s" s="2">
-        <v>1378</v>
-      </c>
-      <c r="O531" t="s" s="2">
-        <v>1379</v>
       </c>
       <c r="P531" s="2"/>
       <c r="Q531" t="s" s="2">
@@ -63142,7 +63134,7 @@
       </c>
       <c r="Z531" s="2"/>
       <c r="AA531" t="s" s="2">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="AB531" t="s" s="2">
         <v>73</v>
@@ -63160,7 +63152,7 @@
         <v>73</v>
       </c>
       <c r="AG531" t="s" s="2">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="AH531" t="s" s="2">
         <v>74</v>
@@ -63177,13 +63169,13 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
@@ -63209,16 +63201,16 @@
         <v>119</v>
       </c>
       <c r="M532" t="s" s="2">
+        <v>1379</v>
+      </c>
+      <c r="N532" t="s" s="2">
+        <v>1380</v>
+      </c>
+      <c r="O532" t="s" s="2">
+        <v>1381</v>
+      </c>
+      <c r="P532" t="s" s="2">
         <v>1382</v>
-      </c>
-      <c r="N532" t="s" s="2">
-        <v>1383</v>
-      </c>
-      <c r="O532" t="s" s="2">
-        <v>1384</v>
-      </c>
-      <c r="P532" t="s" s="2">
-        <v>1385</v>
       </c>
       <c r="Q532" t="s" s="2">
         <v>73</v>
@@ -63267,7 +63259,7 @@
         <v>73</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>74</v>
@@ -63276,7 +63268,7 @@
         <v>82</v>
       </c>
       <c r="AJ532" t="s" s="2">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="AK532" t="s" s="2">
         <v>110</v>
@@ -63284,13 +63276,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -63316,13 +63308,13 @@
         <v>119</v>
       </c>
       <c r="M533" t="s" s="2">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="N533" t="s" s="2">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="O533" t="s" s="2">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="P533" s="2"/>
       <c r="Q533" t="s" s="2">
@@ -63372,7 +63364,7 @@
         <v>73</v>
       </c>
       <c r="AG533" t="s" s="2">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="AH533" t="s" s="2">
         <v>74</v>
@@ -63389,13 +63381,13 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
@@ -63421,13 +63413,13 @@
         <v>101</v>
       </c>
       <c r="M534" t="s" s="2">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="N534" t="s" s="2">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="O534" t="s" s="2">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="P534" s="2"/>
       <c r="Q534" t="s" s="2">
@@ -63456,10 +63448,10 @@
         <v>107</v>
       </c>
       <c r="Z534" t="s" s="2">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="AA534" t="s" s="2">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AB534" t="s" s="2">
         <v>73</v>
@@ -63477,7 +63469,7 @@
         <v>73</v>
       </c>
       <c r="AG534" t="s" s="2">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="AH534" t="s" s="2">
         <v>82</v>
@@ -63494,13 +63486,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -63526,23 +63518,23 @@
         <v>287</v>
       </c>
       <c r="M535" t="s" s="2">
+        <v>1395</v>
+      </c>
+      <c r="N535" t="s" s="2">
+        <v>1396</v>
+      </c>
+      <c r="O535" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="P535" t="s" s="2">
         <v>1398</v>
       </c>
-      <c r="N535" t="s" s="2">
+      <c r="Q535" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R535" t="s" s="2">
         <v>1399</v>
       </c>
-      <c r="O535" t="s" s="2">
-        <v>1400</v>
-      </c>
-      <c r="P535" t="s" s="2">
-        <v>1401</v>
-      </c>
-      <c r="Q535" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R535" t="s" s="2">
-        <v>1402</v>
-      </c>
       <c r="S535" t="s" s="2">
         <v>73</v>
       </c>
@@ -63586,7 +63578,7 @@
         <v>73</v>
       </c>
       <c r="AG535" t="s" s="2">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="AH535" t="s" s="2">
         <v>74</v>
@@ -63603,17 +63595,17 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="F536" s="2"/>
       <c r="G536" t="s" s="2">
@@ -63635,13 +63627,13 @@
         <v>925</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="N536" t="s" s="2">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="O536" t="s" s="2">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="P536" s="2"/>
       <c r="Q536" t="s" s="2">
@@ -63691,7 +63683,7 @@
         <v>73</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>74</v>
@@ -63708,13 +63700,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -63740,16 +63732,16 @@
         <v>119</v>
       </c>
       <c r="M537" t="s" s="2">
+        <v>1406</v>
+      </c>
+      <c r="N537" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="O537" t="s" s="2">
+        <v>1408</v>
+      </c>
+      <c r="P537" t="s" s="2">
         <v>1409</v>
-      </c>
-      <c r="N537" t="s" s="2">
-        <v>1410</v>
-      </c>
-      <c r="O537" t="s" s="2">
-        <v>1411</v>
-      </c>
-      <c r="P537" t="s" s="2">
-        <v>1412</v>
       </c>
       <c r="Q537" t="s" s="2">
         <v>73</v>
@@ -63798,7 +63790,7 @@
         <v>73</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>74</v>
@@ -63815,13 +63807,13 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -63844,16 +63836,16 @@
         <v>100</v>
       </c>
       <c r="L538" t="s" s="2">
+        <v>1411</v>
+      </c>
+      <c r="M538" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="N538" t="s" s="2">
+        <v>1413</v>
+      </c>
+      <c r="O538" t="s" s="2">
         <v>1414</v>
-      </c>
-      <c r="M538" t="s" s="2">
-        <v>1415</v>
-      </c>
-      <c r="N538" t="s" s="2">
-        <v>1416</v>
-      </c>
-      <c r="O538" t="s" s="2">
-        <v>1417</v>
       </c>
       <c r="P538" s="2"/>
       <c r="Q538" t="s" s="2">
@@ -63903,7 +63895,7 @@
         <v>73</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>74</v>
@@ -63920,13 +63912,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -63952,13 +63944,13 @@
         <v>567</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="O539" t="s" s="2">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -64008,7 +64000,7 @@
         <v>73</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>74</v>
@@ -64025,13 +64017,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -64054,19 +64046,19 @@
         <v>100</v>
       </c>
       <c r="L540" t="s" s="2">
+        <v>1420</v>
+      </c>
+      <c r="M540" t="s" s="2">
+        <v>1421</v>
+      </c>
+      <c r="N540" t="s" s="2">
+        <v>1422</v>
+      </c>
+      <c r="O540" t="s" s="2">
         <v>1423</v>
       </c>
-      <c r="M540" t="s" s="2">
+      <c r="P540" t="s" s="2">
         <v>1424</v>
-      </c>
-      <c r="N540" t="s" s="2">
-        <v>1425</v>
-      </c>
-      <c r="O540" t="s" s="2">
-        <v>1426</v>
-      </c>
-      <c r="P540" t="s" s="2">
-        <v>1427</v>
       </c>
       <c r="Q540" t="s" s="2">
         <v>73</v>
@@ -64115,7 +64107,7 @@
         <v>73</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>74</v>
@@ -64132,13 +64124,13 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -64164,13 +64156,13 @@
         <v>240</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="O541" t="s" s="2">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -64199,10 +64191,10 @@
         <v>241</v>
       </c>
       <c r="Z541" t="s" s="2">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AA541" t="s" s="2">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AB541" t="s" s="2">
         <v>73</v>
@@ -64220,7 +64212,7 @@
         <v>73</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>74</v>
@@ -64237,13 +64229,13 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -64269,13 +64261,13 @@
         <v>287</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="O542" t="s" s="2">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -64325,7 +64317,7 @@
         <v>73</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>74</v>
@@ -64342,13 +64334,13 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -64374,13 +64366,13 @@
         <v>567</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="O543" t="s" s="2">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="P543" s="2"/>
       <c r="Q543" t="s" s="2">
@@ -64430,7 +64422,7 @@
         <v>73</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>74</v>
@@ -64447,17 +64439,17 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -64479,16 +64471,16 @@
         <v>567</v>
       </c>
       <c r="M544" t="s" s="2">
+        <v>1441</v>
+      </c>
+      <c r="N544" t="s" s="2">
+        <v>1442</v>
+      </c>
+      <c r="O544" t="s" s="2">
+        <v>1443</v>
+      </c>
+      <c r="P544" t="s" s="2">
         <v>1444</v>
-      </c>
-      <c r="N544" t="s" s="2">
-        <v>1445</v>
-      </c>
-      <c r="O544" t="s" s="2">
-        <v>1446</v>
-      </c>
-      <c r="P544" t="s" s="2">
-        <v>1447</v>
       </c>
       <c r="Q544" t="s" s="2">
         <v>73</v>
@@ -64537,7 +64529,7 @@
         <v>73</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>74</v>
@@ -64554,13 +64546,13 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -64586,16 +64578,16 @@
         <v>119</v>
       </c>
       <c r="M545" t="s" s="2">
+        <v>1446</v>
+      </c>
+      <c r="N545" t="s" s="2">
+        <v>1447</v>
+      </c>
+      <c r="O545" t="s" s="2">
+        <v>1448</v>
+      </c>
+      <c r="P545" t="s" s="2">
         <v>1449</v>
-      </c>
-      <c r="N545" t="s" s="2">
-        <v>1450</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>1451</v>
-      </c>
-      <c r="P545" t="s" s="2">
-        <v>1452</v>
       </c>
       <c r="Q545" t="s" s="2">
         <v>73</v>
@@ -64644,7 +64636,7 @@
         <v>73</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>74</v>
@@ -64661,13 +64653,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -64693,13 +64685,13 @@
         <v>908</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="O546" t="s" s="2">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
@@ -64749,7 +64741,7 @@
         <v>73</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>74</v>
@@ -64766,13 +64758,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -64798,16 +64790,16 @@
         <v>908</v>
       </c>
       <c r="M547" t="s" s="2">
+        <v>1455</v>
+      </c>
+      <c r="N547" t="s" s="2">
+        <v>1456</v>
+      </c>
+      <c r="O547" t="s" s="2">
+        <v>1457</v>
+      </c>
+      <c r="P547" t="s" s="2">
         <v>1458</v>
-      </c>
-      <c r="N547" t="s" s="2">
-        <v>1459</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>1460</v>
-      </c>
-      <c r="P547" t="s" s="2">
-        <v>1461</v>
       </c>
       <c r="Q547" t="s" s="2">
         <v>73</v>
@@ -64856,7 +64848,7 @@
         <v>73</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>74</v>
@@ -64873,13 +64865,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -64905,16 +64897,16 @@
         <v>184</v>
       </c>
       <c r="M548" t="s" s="2">
+        <v>1460</v>
+      </c>
+      <c r="N548" t="s" s="2">
+        <v>1461</v>
+      </c>
+      <c r="O548" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="P548" t="s" s="2">
         <v>1463</v>
-      </c>
-      <c r="N548" t="s" s="2">
-        <v>1464</v>
-      </c>
-      <c r="O548" t="s" s="2">
-        <v>1465</v>
-      </c>
-      <c r="P548" t="s" s="2">
-        <v>1466</v>
       </c>
       <c r="Q548" t="s" s="2">
         <v>73</v>
@@ -64963,7 +64955,7 @@
         <v>73</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>74</v>
@@ -64980,13 +64972,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -65012,16 +65004,16 @@
         <v>240</v>
       </c>
       <c r="M549" t="s" s="2">
+        <v>1465</v>
+      </c>
+      <c r="N549" t="s" s="2">
+        <v>1466</v>
+      </c>
+      <c r="O549" t="s" s="2">
+        <v>1467</v>
+      </c>
+      <c r="P549" t="s" s="2">
         <v>1468</v>
-      </c>
-      <c r="N549" t="s" s="2">
-        <v>1469</v>
-      </c>
-      <c r="O549" t="s" s="2">
-        <v>1470</v>
-      </c>
-      <c r="P549" t="s" s="2">
-        <v>1471</v>
       </c>
       <c r="Q549" t="s" s="2">
         <v>73</v>
@@ -65050,7 +65042,7 @@
       </c>
       <c r="Z549" s="2"/>
       <c r="AA549" t="s" s="2">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="AB549" t="s" s="2">
         <v>73</v>
@@ -65068,7 +65060,7 @@
         <v>73</v>
       </c>
       <c r="AG549" t="s" s="2">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="AH549" t="s" s="2">
         <v>74</v>
@@ -65085,13 +65077,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -65114,13 +65106,13 @@
         <v>73</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="O550" s="2"/>
       <c r="P550" s="2"/>
@@ -65171,7 +65163,7 @@
         <v>73</v>
       </c>
       <c r="AG550" t="s" s="2">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="AH550" t="s" s="2">
         <v>74</v>
@@ -65188,13 +65180,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -65217,13 +65209,13 @@
         <v>73</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="O551" s="2"/>
       <c r="P551" s="2"/>
@@ -65274,7 +65266,7 @@
         <v>73</v>
       </c>
       <c r="AG551" t="s" s="2">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="AH551" t="s" s="2">
         <v>74</v>
@@ -65291,13 +65283,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -65320,16 +65312,16 @@
         <v>73</v>
       </c>
       <c r="L552" t="s" s="2">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="N552" t="s" s="2">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="O552" t="s" s="2">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -65379,7 +65371,7 @@
         <v>73</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>74</v>
@@ -65396,13 +65388,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -65425,16 +65417,16 @@
         <v>73</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="O553" t="s" s="2">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="P553" s="2"/>
       <c r="Q553" t="s" s="2">
@@ -65484,7 +65476,7 @@
         <v>73</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>74</v>
@@ -65501,13 +65493,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -65530,19 +65522,19 @@
         <v>73</v>
       </c>
       <c r="L554" t="s" s="2">
+        <v>1484</v>
+      </c>
+      <c r="M554" t="s" s="2">
+        <v>1485</v>
+      </c>
+      <c r="N554" t="s" s="2">
+        <v>1486</v>
+      </c>
+      <c r="O554" t="s" s="2">
         <v>1487</v>
       </c>
-      <c r="M554" t="s" s="2">
+      <c r="P554" t="s" s="2">
         <v>1488</v>
-      </c>
-      <c r="N554" t="s" s="2">
-        <v>1489</v>
-      </c>
-      <c r="O554" t="s" s="2">
-        <v>1490</v>
-      </c>
-      <c r="P554" t="s" s="2">
-        <v>1491</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>73</v>
@@ -65591,7 +65583,7 @@
         <v>73</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>74</v>
@@ -65608,17 +65600,17 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="F555" s="2"/>
       <c r="G555" t="s" s="2">
@@ -65640,10 +65632,10 @@
         <v>585</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="O555" s="2"/>
       <c r="P555" s="2"/>
@@ -65694,7 +65686,7 @@
         <v>73</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>74</v>
@@ -65711,13 +65703,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -65814,13 +65806,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -65919,13 +65911,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -66026,13 +66018,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -66058,13 +66050,13 @@
         <v>908</v>
       </c>
       <c r="M559" t="s" s="2">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="N559" t="s" s="2">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="O559" t="s" s="2">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="P559" s="2"/>
       <c r="Q559" t="s" s="2">
@@ -66114,7 +66106,7 @@
         <v>73</v>
       </c>
       <c r="AG559" t="s" s="2">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="AH559" t="s" s="2">
         <v>74</v>
@@ -66131,13 +66123,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -66163,13 +66155,13 @@
         <v>287</v>
       </c>
       <c r="M560" t="s" s="2">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="N560" t="s" s="2">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="O560" t="s" s="2">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="P560" s="2"/>
       <c r="Q560" t="s" s="2">
@@ -66219,7 +66211,7 @@
         <v>73</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>74</v>
@@ -66236,13 +66228,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -66268,13 +66260,13 @@
         <v>585</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="O561" t="s" s="2">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="P561" s="2"/>
       <c r="Q561" t="s" s="2">
@@ -66324,7 +66316,7 @@
         <v>73</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>82</v>
@@ -66336,18 +66328,18 @@
         <v>73</v>
       </c>
       <c r="AK561" t="s" s="2">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -66444,13 +66436,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -66545,16 +66537,16 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D564" t="s" s="2">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="E564" t="s" s="2">
         <v>73</v>
@@ -66576,13 +66568,13 @@
         <v>73</v>
       </c>
       <c r="L564" t="s" s="2">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" s="2"/>
@@ -66650,13 +66642,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -66757,13 +66749,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -66789,13 +66781,13 @@
         <v>200</v>
       </c>
       <c r="M566" t="s" s="2">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="N566" t="s" s="2">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="O566" t="s" s="2">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="P566" s="2"/>
       <c r="Q566" t="s" s="2">
@@ -66845,7 +66837,7 @@
         <v>73</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>74</v>
@@ -66854,7 +66846,7 @@
         <v>82</v>
       </c>
       <c r="AJ566" t="s" s="2">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="AK566" t="s" s="2">
         <v>110</v>
@@ -66862,13 +66854,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -66894,13 +66886,13 @@
         <v>119</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="O567" t="s" s="2">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="P567" s="2"/>
       <c r="Q567" t="s" s="2">
@@ -66950,7 +66942,7 @@
         <v>73</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>74</v>
@@ -66967,13 +66959,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -66999,13 +66991,13 @@
         <v>585</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="P568" s="2"/>
       <c r="Q568" t="s" s="2">
@@ -67055,7 +67047,7 @@
         <v>73</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>74</v>
@@ -67064,7 +67056,7 @@
         <v>75</v>
       </c>
       <c r="AJ568" t="s" s="2">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="AK568" t="s" s="2">
         <v>110</v>
@@ -67072,13 +67064,13 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -67175,13 +67167,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -67280,13 +67272,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -67387,13 +67379,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -67419,13 +67411,13 @@
         <v>101</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="O572" t="s" s="2">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -67475,7 +67467,7 @@
         <v>73</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>82</v>
@@ -67492,13 +67484,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -67524,13 +67516,13 @@
         <v>119</v>
       </c>
       <c r="M573" t="s" s="2">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="N573" t="s" s="2">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="O573" t="s" s="2">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="P573" s="2"/>
       <c r="Q573" t="s" s="2">
@@ -67580,7 +67572,7 @@
         <v>73</v>
       </c>
       <c r="AG573" t="s" s="2">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="AH573" t="s" s="2">
         <v>74</v>
@@ -67597,13 +67589,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -67629,13 +67621,13 @@
         <v>585</v>
       </c>
       <c r="M574" t="s" s="2">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="N574" t="s" s="2">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="O574" t="s" s="2">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="P574" s="2"/>
       <c r="Q574" t="s" s="2">
@@ -67685,7 +67677,7 @@
         <v>73</v>
       </c>
       <c r="AG574" t="s" s="2">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="AH574" t="s" s="2">
         <v>74</v>
@@ -67697,18 +67689,18 @@
         <v>73</v>
       </c>
       <c r="AK574" t="s" s="2">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -67805,13 +67797,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -67910,13 +67902,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -68017,13 +68009,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -68049,13 +68041,13 @@
         <v>101</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="O578" t="s" s="2">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="P578" s="2"/>
       <c r="Q578" t="s" s="2">
@@ -68105,7 +68097,7 @@
         <v>73</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>74</v>
@@ -68122,13 +68114,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -68154,13 +68146,13 @@
         <v>221</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="N579" t="s" s="2">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="O579" t="s" s="2">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="P579" s="2"/>
       <c r="Q579" t="s" s="2">
@@ -68189,10 +68181,10 @@
         <v>241</v>
       </c>
       <c r="Z579" t="s" s="2">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="AA579" t="s" s="2">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AB579" t="s" s="2">
         <v>73</v>
@@ -68210,7 +68202,7 @@
         <v>73</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>74</v>
@@ -68219,7 +68211,7 @@
         <v>82</v>
       </c>
       <c r="AJ579" t="s" s="2">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AK579" t="s" s="2">
         <v>110</v>
@@ -68227,13 +68219,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -68259,13 +68251,13 @@
         <v>221</v>
       </c>
       <c r="M580" t="s" s="2">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="N580" t="s" s="2">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="O580" t="s" s="2">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="P580" s="2"/>
       <c r="Q580" t="s" s="2">
@@ -68294,28 +68286,28 @@
         <v>241</v>
       </c>
       <c r="Z580" t="s" s="2">
+        <v>1558</v>
+      </c>
+      <c r="AA580" t="s" s="2">
+        <v>1559</v>
+      </c>
+      <c r="AB580" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC580" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD580" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE580" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF580" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG580" t="s" s="2">
         <v>1561</v>
-      </c>
-      <c r="AA580" t="s" s="2">
-        <v>1562</v>
-      </c>
-      <c r="AB580" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC580" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD580" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE580" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF580" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG580" t="s" s="2">
-        <v>1564</v>
       </c>
       <c r="AH580" t="s" s="2">
         <v>74</v>
@@ -68324,7 +68316,7 @@
         <v>75</v>
       </c>
       <c r="AJ580" t="s" s="2">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AK580" t="s" s="2">
         <v>110</v>
@@ -68332,13 +68324,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -68364,10 +68356,10 @@
         <v>119</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="N581" t="s" s="2">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="O581" s="2"/>
       <c r="P581" s="2"/>
@@ -68418,7 +68410,7 @@
         <v>73</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>82</v>
@@ -68435,13 +68427,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -68467,13 +68459,13 @@
         <v>585</v>
       </c>
       <c r="M582" t="s" s="2">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="N582" t="s" s="2">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="O582" t="s" s="2">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="P582" s="2"/>
       <c r="Q582" t="s" s="2">
@@ -68523,7 +68515,7 @@
         <v>73</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>74</v>
@@ -68532,7 +68524,7 @@
         <v>75</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="AK582" t="s" s="2">
         <v>110</v>
@@ -68540,13 +68532,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -68643,13 +68635,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -68748,13 +68740,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -68855,13 +68847,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -68887,10 +68879,10 @@
         <v>101</v>
       </c>
       <c r="M586" t="s" s="2">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="N586" t="s" s="2">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="O586" s="2"/>
       <c r="P586" s="2"/>
@@ -68941,7 +68933,7 @@
         <v>73</v>
       </c>
       <c r="AG586" t="s" s="2">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="AH586" t="s" s="2">
         <v>82</v>
@@ -68958,13 +68950,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -68990,13 +68982,13 @@
         <v>101</v>
       </c>
       <c r="M587" t="s" s="2">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="N587" t="s" s="2">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="O587" t="s" s="2">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="P587" s="2"/>
       <c r="Q587" t="s" s="2">
@@ -69025,10 +69017,10 @@
         <v>107</v>
       </c>
       <c r="Z587" t="s" s="2">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="AA587" t="s" s="2">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="AB587" t="s" s="2">
         <v>73</v>
@@ -69046,7 +69038,7 @@
         <v>73</v>
       </c>
       <c r="AG587" t="s" s="2">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="AH587" t="s" s="2">
         <v>82</v>
@@ -69063,13 +69055,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -69095,13 +69087,13 @@
         <v>119</v>
       </c>
       <c r="M588" t="s" s="2">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="N588" t="s" s="2">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="O588" t="s" s="2">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -69151,7 +69143,7 @@
         <v>73</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>82</v>
@@ -69168,13 +69160,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -69197,16 +69189,16 @@
         <v>100</v>
       </c>
       <c r="L589" t="s" s="2">
+        <v>1589</v>
+      </c>
+      <c r="M589" t="s" s="2">
+        <v>1590</v>
+      </c>
+      <c r="N589" t="s" s="2">
+        <v>1591</v>
+      </c>
+      <c r="O589" t="s" s="2">
         <v>1592</v>
-      </c>
-      <c r="M589" t="s" s="2">
-        <v>1593</v>
-      </c>
-      <c r="N589" t="s" s="2">
-        <v>1594</v>
-      </c>
-      <c r="O589" t="s" s="2">
-        <v>1595</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -69256,7 +69248,7 @@
         <v>73</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>74</v>
@@ -69265,7 +69257,7 @@
         <v>75</v>
       </c>
       <c r="AJ589" t="s" s="2">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="AK589" t="s" s="2">
         <v>110</v>
@@ -69273,13 +69265,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -69305,10 +69297,10 @@
         <v>119</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="O590" s="2"/>
       <c r="P590" s="2"/>
@@ -69359,7 +69351,7 @@
         <v>73</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>74</v>
@@ -69376,13 +69368,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -69408,13 +69400,13 @@
         <v>76</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="O591" t="s" s="2">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="P591" s="2"/>
       <c r="Q591" t="s" s="2">
@@ -69464,7 +69456,7 @@
         <v>73</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>74</v>
@@ -69481,13 +69473,13 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -69513,13 +69505,13 @@
         <v>119</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="O592" t="s" s="2">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="P592" s="2"/>
       <c r="Q592" t="s" s="2">
@@ -69569,7 +69561,7 @@
         <v>73</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>74</v>
@@ -69586,13 +69578,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -69618,13 +69610,13 @@
         <v>585</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="N593" t="s" s="2">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="O593" t="s" s="2">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="P593" s="2"/>
       <c r="Q593" t="s" s="2">
@@ -69674,7 +69666,7 @@
         <v>73</v>
       </c>
       <c r="AG593" t="s" s="2">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="AH593" t="s" s="2">
         <v>74</v>
@@ -69691,13 +69683,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -69794,13 +69786,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -69899,13 +69891,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -70006,13 +69998,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -70038,13 +70030,13 @@
         <v>200</v>
       </c>
       <c r="M597" t="s" s="2">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="N597" t="s" s="2">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="O597" t="s" s="2">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="P597" s="2"/>
       <c r="Q597" t="s" s="2">
@@ -70094,7 +70086,7 @@
         <v>73</v>
       </c>
       <c r="AG597" t="s" s="2">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="AH597" t="s" s="2">
         <v>74</v>
@@ -70111,13 +70103,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -70143,13 +70135,13 @@
         <v>200</v>
       </c>
       <c r="M598" t="s" s="2">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="N598" t="s" s="2">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="O598" t="s" s="2">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="P598" s="2"/>
       <c r="Q598" t="s" s="2">
@@ -70199,7 +70191,7 @@
         <v>73</v>
       </c>
       <c r="AG598" t="s" s="2">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="AH598" t="s" s="2">
         <v>74</v>
@@ -70216,13 +70208,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -70248,13 +70240,13 @@
         <v>925</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="N599" t="s" s="2">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="O599" t="s" s="2">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="P599" s="2"/>
       <c r="Q599" t="s" s="2">
@@ -70304,7 +70296,7 @@
         <v>73</v>
       </c>
       <c r="AG599" t="s" s="2">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="AH599" t="s" s="2">
         <v>82</v>
@@ -70321,13 +70313,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -70353,13 +70345,13 @@
         <v>975</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="N600" t="s" s="2">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="O600" t="s" s="2">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="P600" s="2"/>
       <c r="Q600" t="s" s="2">
@@ -70409,7 +70401,7 @@
         <v>73</v>
       </c>
       <c r="AG600" t="s" s="2">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="AH600" t="s" s="2">
         <v>74</v>
@@ -70426,13 +70418,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -70458,20 +70450,20 @@
         <v>975</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="O601" t="s" s="2">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="P601" s="2"/>
       <c r="Q601" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R601" t="s" s="2">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="S601" t="s" s="2">
         <v>73</v>
@@ -70516,7 +70508,7 @@
         <v>73</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="AH601" t="s" s="2">
         <v>74</v>
@@ -70533,13 +70525,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -70565,13 +70557,13 @@
         <v>585</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="N602" t="s" s="2">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="O602" t="s" s="2">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="P602" s="2"/>
       <c r="Q602" t="s" s="2">
@@ -70621,7 +70613,7 @@
         <v>73</v>
       </c>
       <c r="AG602" t="s" s="2">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>74</v>
@@ -70638,13 +70630,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -70741,13 +70733,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -70846,13 +70838,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -70953,13 +70945,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -70985,13 +70977,13 @@
         <v>119</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="O606" t="s" s="2">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="P606" s="2"/>
       <c r="Q606" t="s" s="2">
@@ -71041,7 +71033,7 @@
         <v>73</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>82</v>
@@ -71058,13 +71050,13 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -71087,13 +71079,13 @@
         <v>73</v>
       </c>
       <c r="L607" t="s" s="2">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="O607" s="2"/>
       <c r="P607" s="2"/>
@@ -71144,7 +71136,7 @@
         <v>73</v>
       </c>
       <c r="AG607" t="s" s="2">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>74</v>
@@ -71161,13 +71153,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -71193,10 +71185,10 @@
         <v>585</v>
       </c>
       <c r="M608" t="s" s="2">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="O608" s="2"/>
       <c r="P608" s="2"/>
@@ -71247,7 +71239,7 @@
         <v>73</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>74</v>
@@ -71264,13 +71256,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -71367,13 +71359,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -71472,13 +71464,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -71579,13 +71571,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -71611,10 +71603,10 @@
         <v>101</v>
       </c>
       <c r="M612" t="s" s="2">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="N612" t="s" s="2">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="O612" s="2"/>
       <c r="P612" s="2"/>
@@ -71665,7 +71657,7 @@
         <v>73</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>82</v>
@@ -71682,13 +71674,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -71714,10 +71706,10 @@
         <v>200</v>
       </c>
       <c r="M613" t="s" s="2">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="N613" t="s" s="2">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="O613" s="2"/>
       <c r="P613" s="2"/>
@@ -71768,7 +71760,7 @@
         <v>73</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>74</v>
@@ -71785,13 +71777,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -71817,10 +71809,10 @@
         <v>585</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="N614" t="s" s="2">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="O614" s="2"/>
       <c r="P614" s="2"/>
@@ -71871,7 +71863,7 @@
         <v>73</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>74</v>
@@ -71883,18 +71875,18 @@
         <v>73</v>
       </c>
       <c r="AK614" t="s" s="2">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -71991,13 +71983,13 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -72092,16 +72084,16 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D617" t="s" s="2">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="E617" t="s" s="2">
         <v>73</v>
@@ -72123,13 +72115,13 @@
         <v>73</v>
       </c>
       <c r="L617" t="s" s="2">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M617" t="s" s="2">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="N617" t="s" s="2">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="O617" s="2"/>
       <c r="P617" s="2"/>
@@ -72197,13 +72189,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -72304,13 +72296,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -72336,10 +72328,10 @@
         <v>200</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="O619" s="2"/>
       <c r="P619" s="2"/>
@@ -72390,16 +72382,16 @@
         <v>73</v>
       </c>
       <c r="AG619" t="s" s="2">
+        <v>1668</v>
+      </c>
+      <c r="AH619" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI619" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ619" t="s" s="2">
         <v>1671</v>
-      </c>
-      <c r="AH619" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI619" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ619" t="s" s="2">
-        <v>1674</v>
       </c>
       <c r="AK619" t="s" s="2">
         <v>110</v>
@@ -72407,13 +72399,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -72439,20 +72431,20 @@
         <v>287</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="O620" t="s" s="2">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R620" t="s" s="2">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="S620" t="s" s="2">
         <v>73</v>
@@ -72497,7 +72489,7 @@
         <v>73</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>74</v>
@@ -72506,7 +72498,7 @@
         <v>82</v>
       </c>
       <c r="AJ620" t="s" s="2">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="AK620" t="s" s="2">
         <v>110</v>
@@ -72514,13 +72506,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -72546,13 +72538,13 @@
         <v>287</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="P621" s="2"/>
       <c r="Q621" t="s" s="2">
@@ -72602,7 +72594,7 @@
         <v>73</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>74</v>
@@ -72619,13 +72611,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -72651,13 +72643,13 @@
         <v>119</v>
       </c>
       <c r="M622" t="s" s="2">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="N622" t="s" s="2">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="O622" t="s" s="2">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="P622" s="2"/>
       <c r="Q622" t="s" s="2">
@@ -72707,7 +72699,7 @@
         <v>73</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>74</v>
@@ -72724,13 +72716,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -72756,10 +72748,10 @@
         <v>101</v>
       </c>
       <c r="M623" t="s" s="2">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="N623" t="s" s="2">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="O623" s="2"/>
       <c r="P623" s="2"/>
@@ -72810,16 +72802,16 @@
         <v>73</v>
       </c>
       <c r="AG623" t="s" s="2">
+        <v>1686</v>
+      </c>
+      <c r="AH623" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI623" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ623" t="s" s="2">
         <v>1689</v>
-      </c>
-      <c r="AH623" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI623" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ623" t="s" s="2">
-        <v>1692</v>
       </c>
       <c r="AK623" t="s" s="2">
         <v>110</v>
@@ -72827,13 +72819,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -72859,10 +72851,10 @@
         <v>119</v>
       </c>
       <c r="M624" t="s" s="2">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="N624" t="s" s="2">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="O624" s="2"/>
       <c r="P624" s="2"/>
@@ -72913,16 +72905,16 @@
         <v>73</v>
       </c>
       <c r="AG624" t="s" s="2">
+        <v>1690</v>
+      </c>
+      <c r="AH624" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI624" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ624" t="s" s="2">
         <v>1693</v>
-      </c>
-      <c r="AH624" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI624" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ624" t="s" s="2">
-        <v>1696</v>
       </c>
       <c r="AK624" t="s" s="2">
         <v>110</v>
@@ -72930,13 +72922,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -72962,13 +72954,13 @@
         <v>76</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="O625" t="s" s="2">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="P625" s="2"/>
       <c r="Q625" t="s" s="2">
@@ -73018,7 +73010,7 @@
         <v>73</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>74</v>
@@ -73035,13 +73027,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -73067,10 +73059,10 @@
         <v>585</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -73121,7 +73113,7 @@
         <v>73</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>74</v>
@@ -73138,13 +73130,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -73241,13 +73233,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -73346,13 +73338,13 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -73453,13 +73445,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -73485,10 +73477,10 @@
         <v>101</v>
       </c>
       <c r="M630" t="s" s="2">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="N630" t="s" s="2">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="O630" s="2"/>
       <c r="P630" s="2"/>
@@ -73539,7 +73531,7 @@
         <v>73</v>
       </c>
       <c r="AG630" t="s" s="2">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="AH630" t="s" s="2">
         <v>82</v>
@@ -73556,13 +73548,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -73585,13 +73577,13 @@
         <v>73</v>
       </c>
       <c r="L631" t="s" s="2">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="M631" t="s" s="2">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="N631" t="s" s="2">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="O631" s="2"/>
       <c r="P631" s="2"/>
@@ -73642,7 +73634,7 @@
         <v>73</v>
       </c>
       <c r="AG631" t="s" s="2">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="AH631" t="s" s="2">
         <v>82</v>
@@ -73659,13 +73651,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -73691,10 +73683,10 @@
         <v>585</v>
       </c>
       <c r="M632" t="s" s="2">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="O632" s="2"/>
       <c r="P632" s="2"/>
@@ -73745,7 +73737,7 @@
         <v>73</v>
       </c>
       <c r="AG632" t="s" s="2">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="AH632" t="s" s="2">
         <v>74</v>
@@ -73762,13 +73754,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -73865,13 +73857,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -73970,13 +73962,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -74077,13 +74069,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -74109,10 +74101,10 @@
         <v>101</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" s="2"/>
@@ -74163,7 +74155,7 @@
         <v>73</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>82</v>
@@ -74180,13 +74172,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -74209,13 +74201,13 @@
         <v>73</v>
       </c>
       <c r="L637" t="s" s="2">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" s="2"/>
@@ -74266,7 +74258,7 @@
         <v>73</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>82</v>
@@ -74283,13 +74275,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -74315,13 +74307,13 @@
         <v>76</v>
       </c>
       <c r="M638" t="s" s="2">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="N638" t="s" s="2">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="O638" t="s" s="2">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="P638" s="2"/>
       <c r="Q638" t="s" s="2">
@@ -74371,7 +74363,7 @@
         <v>73</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>74</v>
@@ -74388,13 +74380,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -74420,10 +74412,10 @@
         <v>585</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="N639" t="s" s="2">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
@@ -74474,7 +74466,7 @@
         <v>73</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>74</v>
@@ -74491,13 +74483,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -74594,13 +74586,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -74699,13 +74691,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -74806,13 +74798,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -74838,10 +74830,10 @@
         <v>119</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" s="2"/>
@@ -74892,7 +74884,7 @@
         <v>73</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>74</v>
@@ -74909,13 +74901,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -74941,10 +74933,10 @@
         <v>119</v>
       </c>
       <c r="M644" t="s" s="2">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="O644" s="2"/>
       <c r="P644" s="2"/>
@@ -74995,7 +74987,7 @@
         <v>73</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>74</v>
